--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -758,7 +758,7 @@
         <v>6.0863173609319</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2" t="n">
         <v>15.5645227673654</v>
@@ -767,7 +767,7 @@
         <v>6.61256487766897</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.45508729917437</v>
       </c>
       <c r="X2" t="n">
         <v>98.7138978920833</v>
@@ -779,10 +779,10 @@
         <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.566973320863775</v>
+        <v>1.56697332086377</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.2896579444154</v>
+        <v>-22.7103420555846</v>
       </c>
       <c r="AC2" t="n">
         <v>0.97584586036845</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>100</v>
@@ -821,7 +821,7 @@
         <v>1.15558321354577</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>1.01142174094715</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.770517376477767</v>
       </c>
       <c r="AW2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>152.555047730535</v>
+        <v>152.521817513277</v>
       </c>
       <c r="BA2" t="n">
         <v>0.768721416774195</v>
@@ -863,13 +863,13 @@
         <v>12.1725985085532</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>9.55150557584923</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>-83.0411921843169</v>
       </c>
       <c r="BE2" t="n">
-        <v>2725.84679094237</v>
+        <v>2724.90891581896</v>
       </c>
     </row>
     <row r="3">
@@ -931,7 +931,7 @@
         <v>2.2693826390681</v>
       </c>
       <c r="T3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>7.81187723263465</v>
@@ -940,7 +940,7 @@
         <v>4.19683512233103</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0943799472061553</v>
+        <v>-9.44128729917438</v>
       </c>
       <c r="X3" t="n">
         <v>44.6936021079167</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-3.95067332086377</v>
+        <v>-2.95067332086377</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.1103420555846</v>
+        <v>-27.8896579444154</v>
       </c>
       <c r="AC3" t="n">
         <v>-16.8460458603684</v>
@@ -976,10 +976,10 @@
         <v>100</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>-0.155583213545775</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
         <v>100</v>
@@ -1012,13 +1012,13 @@
         <v>-27.2911217409472</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AV3" t="n">
-        <v>-5.58871737647777</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX3" t="n">
         <v>100</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12.0449522694651</v>
+        <v>12.078182486723</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         <v>6.06740149144679</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.520374439660112</v>
+        <v>-52.0332055758492</v>
       </c>
       <c r="BD3" t="n">
-        <v>-1.34433831958283</v>
+        <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-374.846790942375</v>
+        <v>-373.908915818964</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -716,7 +716,7 @@
         <v>-4.97596066013532</v>
       </c>
       <c r="F2" t="n">
-        <v>2911.37208789286</v>
+        <v>-0.893519723076453</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -788,7 +788,7 @@
         <v>0.97584586036845</v>
       </c>
       <c r="AD2" t="n">
-        <v>30199.6191533594</v>
+        <v>-43.4597587435137</v>
       </c>
       <c r="AE2" t="n">
         <v>-26.5111154904301</v>
@@ -869,7 +869,7 @@
         <v>-83.0411921843169</v>
       </c>
       <c r="BE2" t="n">
-        <v>2724.90891581896</v>
+        <v>6.70397143911055</v>
       </c>
     </row>
     <row r="3">
@@ -880,7 +880,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D3" t="n">
         <v>-74.8020820336519</v>
@@ -889,7 +889,7 @@
         <v>-24.4539393398647</v>
       </c>
       <c r="F3" t="n">
-        <v>-22745.3720878929</v>
+        <v>-37.4293802769235</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N3" t="n">
         <v>-139.107161355172</v>
@@ -925,7 +925,7 @@
         <v>-6.05496339493103</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S3" t="n">
         <v>2.2693826390681</v>
@@ -961,7 +961,7 @@
         <v>-16.8460458603684</v>
       </c>
       <c r="AD3" t="n">
-        <v>-226261.619153359</v>
+        <v>-262.401441256486</v>
       </c>
       <c r="AE3" t="n">
         <v>-198.94088450957</v>
@@ -973,13 +973,13 @@
         <v>-1.68394656363401</v>
       </c>
       <c r="AH3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>20.420678647198</v>
       </c>
       <c r="AM3" t="n">
-        <v>12.4450328218116</v>
+        <v>12.4593014273379</v>
       </c>
       <c r="AN3" t="n">
         <v>-0.155583213545775</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ3" t="n">
         <v>-23.6908317921052</v>
@@ -1006,25 +1006,25 @@
         <v>-75279.8049579186</v>
       </c>
       <c r="AS3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AT3" t="n">
         <v>-27.2911217409472</v>
       </c>
       <c r="AU3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AX3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AY3" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AZ3" t="n">
         <v>12.078182486723</v>
@@ -1042,7 +1042,7 @@
         <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-373.908915818964</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -743,13 +743,13 @@
         <v>21.0773613551721</v>
       </c>
       <c r="O2" t="n">
-        <v>233.281535421447</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0888536878810968</v>
+        <v>-1</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.110036605068966</v>
+        <v>-1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -919,10 +919,10 @@
         <v>-1931.26373542145</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.0888536878811</v>
+        <v>-5</v>
       </c>
       <c r="Q3" t="n">
-        <v>-6.05496339493103</v>
+        <v>-5</v>
       </c>
       <c r="R3" t="n">
         <v>-100</v>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -916,7 +916,7 @@
         <v>-139.107161355172</v>
       </c>
       <c r="O3" t="n">
-        <v>-1931.26373542145</v>
+        <v>-11.539865920551</v>
       </c>
       <c r="P3" t="n">
         <v>-5</v>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -758,7 +758,7 @@
         <v>6.0863173609319</v>
       </c>
       <c r="T2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U2" t="n">
         <v>15.5645227673654</v>
@@ -767,7 +767,7 @@
         <v>6.61256487766897</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45508729917437</v>
+        <v>0.0145799472061553</v>
       </c>
       <c r="X2" t="n">
         <v>98.7138978920833</v>
@@ -782,7 +782,7 @@
         <v>1.56697332086377</v>
       </c>
       <c r="AB2" t="n">
-        <v>-22.7103420555846</v>
+        <v>77.2896579444154</v>
       </c>
       <c r="AC2" t="n">
         <v>0.97584586036845</v>
@@ -940,7 +940,7 @@
         <v>4.19683512233103</v>
       </c>
       <c r="W3" t="n">
-        <v>-9.44128729917438</v>
+        <v>-0.0943799472061553</v>
       </c>
       <c r="X3" t="n">
         <v>44.6936021079167</v>
@@ -955,7 +955,7 @@
         <v>-2.95067332086377</v>
       </c>
       <c r="AB3" t="n">
-        <v>-27.8896579444154</v>
+        <v>72.1103420555846</v>
       </c>
       <c r="AC3" t="n">
         <v>-16.8460458603684</v>
@@ -976,10 +976,10 @@
         <v>-100</v>
       </c>
       <c r="AI3" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.73808203365187</v>
+        <v>3.7380820336519</v>
       </c>
       <c r="E2" t="n">
         <v>-4.97596066013532</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.893519723076453</v>
+        <v>-0.89351972307645</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -758,7 +758,7 @@
         <v>6.0863173609319</v>
       </c>
       <c r="T2" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>15.5645227673654</v>
@@ -779,7 +779,7 @@
         <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.56697332086377</v>
+        <v>1.56697332086378</v>
       </c>
       <c r="AB2" t="n">
         <v>77.2896579444154</v>
@@ -788,7 +788,7 @@
         <v>0.97584586036845</v>
       </c>
       <c r="AD2" t="n">
-        <v>-43.4597587435137</v>
+        <v>-43.4597587435138</v>
       </c>
       <c r="AE2" t="n">
         <v>-26.5111154904301</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
         <v>100</v>
@@ -818,7 +818,7 @@
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.15558321354577</v>
+        <v>1.15558321354578</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.770517376477767</v>
+        <v>1.00768713875036</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>-24.4539393398647</v>
       </c>
       <c r="F3" t="n">
-        <v>-37.4293802769235</v>
+        <v>-37.4293802769236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>2.2693826390681</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U3" t="n">
         <v>7.81187723263465</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-2.95067332086377</v>
+        <v>-2.95067332086378</v>
       </c>
       <c r="AB3" t="n">
         <v>72.1103420555846</v>
@@ -976,10 +976,10 @@
         <v>-100</v>
       </c>
       <c r="AI3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.546271439110546</v>
+        <v>-0.54627143911055</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -707,16 +707,16 @@
         <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-4.77539731740352</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7380820336519</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.97596066013532</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.89351972307645</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.0773613551721</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6.0863173609319</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>15.5645227673654</v>
+        <v>100</v>
       </c>
       <c r="V2" t="n">
-        <v>6.61256487766897</v>
+        <v>100</v>
       </c>
       <c r="W2" t="n">
         <v>0.0145799472061553</v>
       </c>
       <c r="X2" t="n">
-        <v>98.7138978920833</v>
+        <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>100</v>
+        <v>75.2551692396746</v>
       </c>
       <c r="Z2" t="n">
         <v>100</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.56697332086378</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
         <v>77.2896579444154</v>
@@ -788,7 +788,7 @@
         <v>0.97584586036845</v>
       </c>
       <c r="AD2" t="n">
-        <v>-43.4597587435138</v>
+        <v>-43.4597587435137</v>
       </c>
       <c r="AE2" t="n">
         <v>-26.5111154904301</v>
@@ -809,16 +809,16 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>98.4806652187773</v>
       </c>
       <c r="AL2" t="n">
         <v>85.879321352802</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>54.8406985726621</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.15558321354578</v>
+        <v>1.15558321354577</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -827,22 +827,22 @@
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-7.60336820789477</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>11406.8049579186</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.01142174094715</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.00768713875036</v>
+        <v>77.0516094424606</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -854,22 +854,22 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>152.521817513277</v>
+        <v>100</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.768721416774195</v>
+        <v>76.8679269298813</v>
       </c>
       <c r="BB2" t="n">
         <v>12.1725985085532</v>
       </c>
       <c r="BC2" t="n">
-        <v>9.55150557584923</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
         <v>-83.0411921843169</v>
       </c>
       <c r="BE2" t="n">
-        <v>6.70397143911055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -880,7 +880,7 @@
         <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>-100</v>
+        <v>-53.5246026825965</v>
       </c>
       <c r="D3" t="n">
         <v>-74.8020820336519</v>
@@ -889,7 +889,7 @@
         <v>-24.4539393398647</v>
       </c>
       <c r="F3" t="n">
-        <v>-37.4293802769236</v>
+        <v>-37.4293802769235</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-100</v>
+        <v>-7.76286675797857</v>
       </c>
       <c r="K3" t="n">
-        <v>-100</v>
+        <v>-17.1962453408388</v>
       </c>
       <c r="L3" t="n">
         <v>-100</v>
@@ -928,22 +928,22 @@
         <v>-100</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2693826390681</v>
+        <v>51.4376835999549</v>
       </c>
       <c r="T3" t="n">
         <v>-100</v>
       </c>
       <c r="U3" t="n">
-        <v>7.81187723263465</v>
+        <v>67.7649556213408</v>
       </c>
       <c r="V3" t="n">
-        <v>4.19683512233103</v>
+        <v>58.933323764675</v>
       </c>
       <c r="W3" t="n">
         <v>-0.0943799472061553</v>
       </c>
       <c r="X3" t="n">
-        <v>44.6936021079167</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-2.95067332086378</v>
+        <v>-3.95067087397286</v>
       </c>
       <c r="AB3" t="n">
         <v>72.1103420555846</v>
@@ -991,13 +991,13 @@
         <v>12.4593014273379</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.155583213545775</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-100</v>
+        <v>-32.3714733699923</v>
       </c>
       <c r="AQ3" t="n">
         <v>-23.6908317921052</v>
@@ -1012,28 +1012,28 @@
         <v>-27.2911217409472</v>
       </c>
       <c r="AU3" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>-558.869809442461</v>
       </c>
       <c r="AW3" t="n">
-        <v>-100</v>
+        <v>-105.071881093799</v>
       </c>
       <c r="AX3" t="n">
-        <v>-100</v>
+        <v>-36.542136384055</v>
       </c>
       <c r="AY3" t="n">
-        <v>-100</v>
+        <v>-54.9649532818915</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12.078182486723</v>
+        <v>12.0449522694651</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>6.06740149144679</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
         <v>-52.0332055758492</v>
@@ -1042,7 +1042,7 @@
         <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.54627143911055</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -788,7 +788,7 @@
         <v>0.97584586036845</v>
       </c>
       <c r="AD2" t="n">
-        <v>-43.4597587435137</v>
+        <v>-43.4597587435138</v>
       </c>
       <c r="AE2" t="n">
         <v>-26.5111154904301</v>
@@ -818,7 +818,7 @@
         <v>54.8406985726621</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.15558321354577</v>
+        <v>1.15558321354578</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="AV2" t="n">
-        <v>77.0516094424606</v>
+        <v>100.768467681994</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>-24.4539393398647</v>
       </c>
       <c r="F3" t="n">
-        <v>-37.4293802769235</v>
+        <v>-37.4293802769236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-558.869809442461</v>
+        <v>-582.586667681994</v>
       </c>
       <c r="AW3" t="n">
         <v>-105.071881093799</v>
@@ -1027,7 +1027,7 @@
         <v>-54.9649532818915</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12.0449522694651</v>
+        <v>12.078182486723</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.546271439110546</v>
+        <v>-0.54627143911055</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -782,22 +782,22 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.2896579444154</v>
+        <v>83.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.97584586036845</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-43.4597587435138</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-26.5111154904301</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>19.668891593556</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.269446563634007</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="AV2" t="n">
-        <v>100.768467681994</v>
+        <v>101.218631456365</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>-53.5246026825965</v>
       </c>
       <c r="D3" t="n">
-        <v>-74.8020820336519</v>
+        <v>-151.878382199186</v>
       </c>
       <c r="E3" t="n">
-        <v>-24.4539393398647</v>
+        <v>-3104.83406800167</v>
       </c>
       <c r="F3" t="n">
-        <v>-37.4293802769236</v>
+        <v>-37.5863526486337</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>-3.95067087397286</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.1103420555846</v>
+        <v>50.1</v>
       </c>
       <c r="AC3" t="n">
         <v>-16.8460458603684</v>
       </c>
       <c r="AD3" t="n">
-        <v>-262.401441256486</v>
+        <v>-352.663188593939</v>
       </c>
       <c r="AE3" t="n">
         <v>-198.94088450957</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-582.586667681994</v>
+        <v>-583.036831456365</v>
       </c>
       <c r="AW3" t="n">
         <v>-105.071881093799</v>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -818,7 +818,7 @@
         <v>54.8406985726621</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.15558321354578</v>
+        <v>1.15558321354577</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -1042,7 +1042,7 @@
         <v>-134.435607815683</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.54627143911055</v>
+        <v>-0.546271439110546</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">cve_ent</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -200,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -519,10 +522,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -698,16 +701,19 @@
       <c r="BE1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.77539731740352</v>
+        <v>-4.73454724162634</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -767,13 +773,13 @@
         <v>100</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0145799472061553</v>
+        <v>51.6317098181229</v>
       </c>
       <c r="X2" t="n">
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.2551692396746</v>
+        <v>76.2811008934558</v>
       </c>
       <c r="Z2" t="n">
         <v>100</v>
@@ -809,22 +815,22 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>98.4806652187773</v>
+        <v>5036841.25808115</v>
       </c>
       <c r="AL2" t="n">
-        <v>85.879321352802</v>
+        <v>98.4645911720681</v>
       </c>
       <c r="AM2" t="n">
-        <v>54.8406985726621</v>
+        <v>85.4392188315974</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.15558321354577</v>
+        <v>76.6026138835184</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>1.15024902776662</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -839,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>101.218631456365</v>
+        <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>79.1999077832853</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -854,42 +860,45 @@
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>76.8679269298813</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="n">
-        <v>12.1725985085532</v>
+        <v>77.4582617115193</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>12.1845097528324</v>
       </c>
       <c r="BD2" t="n">
-        <v>-83.0411921843169</v>
+        <v>0</v>
       </c>
       <c r="BE2" t="n">
+        <v>57.3394564230837</v>
+      </c>
+      <c r="BF2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.5246026825965</v>
+        <v>-53.5654527583737</v>
       </c>
       <c r="D3" t="n">
-        <v>-151.878382199186</v>
+        <v>-183.91424568842</v>
       </c>
       <c r="E3" t="n">
-        <v>-3104.83406800167</v>
+        <v>-3293.55117421015</v>
       </c>
       <c r="F3" t="n">
-        <v>-37.5863526486337</v>
+        <v>-569.670045579676</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -901,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.76286675797857</v>
+        <v>-7.72609508516619</v>
       </c>
       <c r="K3" t="n">
-        <v>-17.1962453408388</v>
+        <v>-17.2696029200864</v>
       </c>
       <c r="L3" t="n">
         <v>-100</v>
@@ -913,10 +922,10 @@
         <v>-100</v>
       </c>
       <c r="N3" t="n">
-        <v>-139.107161355172</v>
+        <v>-139.855341890837</v>
       </c>
       <c r="O3" t="n">
-        <v>-11.539865920551</v>
+        <v>-11.5127785388044</v>
       </c>
       <c r="P3" t="n">
         <v>-5</v>
@@ -928,19 +937,19 @@
         <v>-100</v>
       </c>
       <c r="S3" t="n">
-        <v>51.4376835999549</v>
+        <v>40.8880544054783</v>
       </c>
       <c r="T3" t="n">
         <v>-100</v>
       </c>
       <c r="U3" t="n">
-        <v>67.7649556213408</v>
+        <v>64.2383509310851</v>
       </c>
       <c r="V3" t="n">
-        <v>58.933323764675</v>
+        <v>56.2455219740295</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0943799472061553</v>
+        <v>47.7000901818771</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -952,25 +961,25 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-3.95067087397286</v>
+        <v>-3.93599242662714</v>
       </c>
       <c r="AB3" t="n">
         <v>50.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>-16.8460458603684</v>
+        <v>-16.9236152975182</v>
       </c>
       <c r="AD3" t="n">
-        <v>-352.663188593939</v>
+        <v>-356.738200456518</v>
       </c>
       <c r="AE3" t="n">
-        <v>-198.94088450957</v>
+        <v>-217.144611868211</v>
       </c>
       <c r="AF3" t="n">
-        <v>-119.668891593556</v>
+        <v>-118.534234593557</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.68394656363401</v>
+        <v>-1.68205536436043</v>
       </c>
       <c r="AH3" t="n">
         <v>-100</v>
@@ -979,70 +988,73 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>63.7410341361279</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>-24952838.8780812</v>
       </c>
       <c r="AL3" t="n">
-        <v>20.420678647198</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>12.4593014273379</v>
+        <v>20.8607811684026</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>8.59738611648164</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-32.3714733699923</v>
+        <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-23.6908317921052</v>
+        <v>-32.3214416664466</v>
       </c>
       <c r="AR3" t="n">
-        <v>-75279.8049579186</v>
+        <v>-23.7364294122998</v>
       </c>
       <c r="AS3" t="n">
+        <v>-73148.5649203542</v>
+      </c>
+      <c r="AT3" t="n">
         <v>-100</v>
       </c>
-      <c r="AT3" t="n">
-        <v>-27.2911217409472</v>
-      </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-27.4294582557885</v>
       </c>
       <c r="AV3" t="n">
-        <v>-583.036831456365</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-105.071881093799</v>
+        <v>8.6571922167147</v>
       </c>
       <c r="AX3" t="n">
-        <v>-36.542136384055</v>
+        <v>-104.80164389454</v>
       </c>
       <c r="AY3" t="n">
-        <v>-54.9649532818915</v>
+        <v>-36.477461136505</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12.078182486723</v>
+        <v>-55.0790776883126</v>
       </c>
       <c r="BA3" t="n">
-        <v>0</v>
+        <v>11.3008783681875</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-52.0332055758492</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>-134.435607815683</v>
+        <v>41.9812151458592</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.546271439110546</v>
+        <v>44.5620435769163</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-1.03900775035292</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -713,7 +713,7 @@
         <v>59</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.73454724162634</v>
+        <v>-2.90839359293901</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>119.930596653695</v>
       </c>
       <c r="V2" t="n">
-        <v>100</v>
+        <v>119.007347741651</v>
       </c>
       <c r="W2" t="n">
-        <v>51.6317098181229</v>
+        <v>51.6901298010351</v>
       </c>
       <c r="X2" t="n">
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.2811008934558</v>
+        <v>76.2131031508194</v>
       </c>
       <c r="Z2" t="n">
         <v>100</v>
@@ -815,19 +815,19 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>5036841.25808115</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>98.4645911720681</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>85.4392188315974</v>
+        <v>85.086409826228</v>
       </c>
       <c r="AN2" t="n">
-        <v>76.6026138835184</v>
+        <v>78.1391095798395</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.15024902776662</v>
+        <v>0.786957828908489</v>
       </c>
       <c r="AP2" t="n">
         <v>-100</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>2538.3535479411</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="AW2" t="n">
-        <v>79.1999077832853</v>
+        <v>79.1868180835127</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
@@ -863,22 +863,22 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>124.503179337421</v>
       </c>
       <c r="BB2" t="n">
-        <v>77.4582617115193</v>
+        <v>0.791442433483061</v>
       </c>
       <c r="BC2" t="n">
-        <v>12.1845097528324</v>
+        <v>12.1890269439108</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>66.843604184576</v>
       </c>
       <c r="BE2" t="n">
-        <v>57.3394564230837</v>
+        <v>57.6785210626218</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>8.06457538540617</v>
       </c>
     </row>
     <row r="3">
@@ -889,16 +889,16 @@
         <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.5654527583737</v>
+        <v>-53.591606407061</v>
       </c>
       <c r="D3" t="n">
-        <v>-183.91424568842</v>
+        <v>-92.4718370051429</v>
       </c>
       <c r="E3" t="n">
-        <v>-3293.55117421015</v>
+        <v>-17.9808504966332</v>
       </c>
       <c r="F3" t="n">
-        <v>-569.670045579676</v>
+        <v>-426.572777523406</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.72609508516619</v>
+        <v>-10.1952120157735</v>
       </c>
       <c r="K3" t="n">
-        <v>-17.2696029200864</v>
+        <v>-17.2651133618302</v>
       </c>
       <c r="L3" t="n">
         <v>-100</v>
@@ -922,10 +922,10 @@
         <v>-100</v>
       </c>
       <c r="N3" t="n">
-        <v>-139.855341890837</v>
+        <v>-120.017376904186</v>
       </c>
       <c r="O3" t="n">
-        <v>-11.5127785388044</v>
+        <v>-30.8110202686854</v>
       </c>
       <c r="P3" t="n">
         <v>-5</v>
@@ -937,19 +937,19 @@
         <v>-100</v>
       </c>
       <c r="S3" t="n">
-        <v>40.8880544054783</v>
+        <v>40.7567343741299</v>
       </c>
       <c r="T3" t="n">
         <v>-100</v>
       </c>
       <c r="U3" t="n">
-        <v>64.2383509310851</v>
+        <v>77.5838033463053</v>
       </c>
       <c r="V3" t="n">
-        <v>56.2455219740295</v>
+        <v>64.8825522583487</v>
       </c>
       <c r="W3" t="n">
-        <v>47.7000901818771</v>
+        <v>47.6563701989649</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -961,25 +961,25 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-3.93599242662714</v>
+        <v>-4.1120810867329</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.1</v>
+        <v>62.2943731805401</v>
       </c>
       <c r="AC3" t="n">
-        <v>-16.9236152975182</v>
+        <v>-17.7126432576461</v>
       </c>
       <c r="AD3" t="n">
-        <v>-356.738200456518</v>
+        <v>-308.304295716853</v>
       </c>
       <c r="AE3" t="n">
-        <v>-217.144611868211</v>
+        <v>-197.408577999734</v>
       </c>
       <c r="AF3" t="n">
-        <v>-118.534234593557</v>
+        <v>-57.0960890080835</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.68205536436043</v>
+        <v>-1.68063039637909</v>
       </c>
       <c r="AH3" t="n">
         <v>-100</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>63.7410341361279</v>
+        <v>63.592094678659</v>
       </c>
       <c r="AK3" t="n">
-        <v>-24952838.8780812</v>
+        <v>-24882356.4142312</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.8607811684026</v>
+        <v>21.213590173772</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.59738611648164</v>
+        <v>7.0608904201605</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -1009,37 +1009,37 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-32.3214416664466</v>
+        <v>-32.336921848235</v>
       </c>
       <c r="AR3" t="n">
-        <v>-23.7364294122998</v>
+        <v>-24.177363536809</v>
       </c>
       <c r="AS3" t="n">
-        <v>-73148.5649203542</v>
+        <v>-72924.3706479411</v>
       </c>
       <c r="AT3" t="n">
         <v>-100</v>
       </c>
       <c r="AU3" t="n">
-        <v>-27.4294582557885</v>
+        <v>-26.3430837313878</v>
       </c>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>48.4151884980697</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.6571922167147</v>
+        <v>8.67028191648729</v>
       </c>
       <c r="AX3" t="n">
-        <v>-104.80164389454</v>
+        <v>-104.535709632105</v>
       </c>
       <c r="AY3" t="n">
-        <v>-36.477461136505</v>
+        <v>-36.4351824089894</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-55.0790776883126</v>
+        <v>-55.1574614756681</v>
       </c>
       <c r="BA3" t="n">
-        <v>11.3008783681875</v>
+        <v>14.3897206625785</v>
       </c>
       <c r="BB3" t="n">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>41.9812151458592</v>
+        <v>42.004795815424</v>
       </c>
       <c r="BE3" t="n">
-        <v>44.5620435769163</v>
+        <v>44.4392789373782</v>
       </c>
       <c r="BF3" t="n">
-        <v>-1.03900775035292</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">cve_ent</t>
   </si>
@@ -107,9 +107,6 @@
     <t xml:space="preserve">ind_0229</t>
   </si>
   <si>
-    <t xml:space="preserve">ind_0230</t>
-  </si>
-  <si>
     <t xml:space="preserve">ind_0231</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind_0256</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -698,22 +692,16 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.90839359293901</v>
+        <v>-2.90874921508657</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -767,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>119.930596653695</v>
+        <v>119.877133448577</v>
       </c>
       <c r="V2" t="n">
-        <v>119.007347741651</v>
+        <v>118.92158069216</v>
       </c>
       <c r="W2" t="n">
-        <v>51.6901298010351</v>
+        <v>51.6584720469673</v>
       </c>
       <c r="X2" t="n">
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.2131031508194</v>
+        <v>76.1594152352369</v>
       </c>
       <c r="Z2" t="n">
         <v>100</v>
@@ -806,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
         <v>100</v>
@@ -815,90 +803,84 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>84.7969839369398</v>
       </c>
       <c r="AL2" t="n">
+        <v>78.249427674313</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.780736180531579</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2150.9346683916</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>100</v>
       </c>
-      <c r="AM2" t="n">
-        <v>85.086409826228</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>78.1391095798395</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.786957828908489</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2538.3535479411</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>0.790794760052541</v>
       </c>
       <c r="AV2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>79.1868180835127</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>129.273119190095</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>81.4205159114816</v>
       </c>
       <c r="BA2" t="n">
-        <v>124.503179337421</v>
+        <v>12.1899747994087</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.791442433483061</v>
+        <v>66.8508391595614</v>
       </c>
       <c r="BC2" t="n">
-        <v>12.1890269439108</v>
+        <v>57.747890509313</v>
       </c>
       <c r="BD2" t="n">
-        <v>66.843604184576</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>57.6785210626218</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>8.06457538540617</v>
+        <v>8.50696157959982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.591606407061</v>
+        <v>-53.5912507849134</v>
       </c>
       <c r="D3" t="n">
-        <v>-92.4718370051429</v>
+        <v>-97.0154631658537</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.9808504966332</v>
+        <v>-17.7982688474774</v>
       </c>
       <c r="F3" t="n">
-        <v>-426.572777523406</v>
+        <v>-481.007002235318</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -910,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.1952120157735</v>
+        <v>-10.1748626327356</v>
       </c>
       <c r="K3" t="n">
-        <v>-17.2651133618302</v>
+        <v>-17.2615908417889</v>
       </c>
       <c r="L3" t="n">
         <v>-100</v>
@@ -922,10 +904,10 @@
         <v>-100</v>
       </c>
       <c r="N3" t="n">
-        <v>-120.017376904186</v>
+        <v>-143.212673573112</v>
       </c>
       <c r="O3" t="n">
-        <v>-30.8110202686854</v>
+        <v>-33.3961551322635</v>
       </c>
       <c r="P3" t="n">
         <v>-5</v>
@@ -937,19 +919,19 @@
         <v>-100</v>
       </c>
       <c r="S3" t="n">
-        <v>40.7567343741299</v>
+        <v>40.8766913692104</v>
       </c>
       <c r="T3" t="n">
         <v>-100</v>
       </c>
       <c r="U3" t="n">
-        <v>77.5838033463053</v>
+        <v>77.6228665514233</v>
       </c>
       <c r="V3" t="n">
-        <v>64.8825522583487</v>
+        <v>64.9784193078396</v>
       </c>
       <c r="W3" t="n">
-        <v>47.6563701989649</v>
+        <v>47.6733279530327</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -961,99 +943,93 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-4.1120810867329</v>
+        <v>-4.09777216368954</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.2943731805401</v>
+        <v>62.3810554290748</v>
       </c>
       <c r="AC3" t="n">
-        <v>-17.7126432576461</v>
+        <v>-17.8419178618006</v>
       </c>
       <c r="AD3" t="n">
-        <v>-308.304295716853</v>
+        <v>-306.84800343138</v>
       </c>
       <c r="AE3" t="n">
-        <v>-197.408577999734</v>
+        <v>-196.966609743673</v>
       </c>
       <c r="AF3" t="n">
-        <v>-57.0960890080835</v>
+        <v>-1.68233469380408</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.68063039637909</v>
+        <v>-100</v>
       </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>63.5488231471459</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21.5030160630602</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.950572325687</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-49.5703051085785</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-24.2349418767532</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-72536.9517683916</v>
+      </c>
+      <c r="AR3" t="n">
         <v>-100</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>63.592094678659</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-24882356.4142312</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>21.213590173772</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.0608904201605</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>-32.336921848235</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>-24.177363536809</v>
-      </c>
       <c r="AS3" t="n">
-        <v>-72924.3706479411</v>
+        <v>-26.2370622763678</v>
       </c>
       <c r="AT3" t="n">
-        <v>-100</v>
+        <v>48.4992989817909</v>
       </c>
       <c r="AU3" t="n">
-        <v>-26.3430837313878</v>
+        <v>0.0878052399474593</v>
       </c>
       <c r="AV3" t="n">
-        <v>48.4151884980697</v>
+        <v>-66.2958615559492</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.67028191648729</v>
+        <v>-36.3994645767069</v>
       </c>
       <c r="AX3" t="n">
-        <v>-104.535709632105</v>
+        <v>-55.173325146011</v>
       </c>
       <c r="AY3" t="n">
-        <v>-36.4351824089894</v>
+        <v>14.2245808099053</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-55.1574614756681</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>14.3897206625785</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0</v>
+        <v>41.9975608404386</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>44.369909490687</v>
       </c>
       <c r="BD3" t="n">
-        <v>42.004795815424</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>44.4392789373782</v>
-      </c>
-      <c r="BF3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/03_ips_clean/06_ips_utop_distop_wide.xlsx
+++ b/03_ips_clean/06_ips_utop_distop_wide.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">cve_ent</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">ind_0234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind_0258</t>
   </si>
   <si>
     <t xml:space="preserve">ind_0335</t>
@@ -692,16 +695,19 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.90874921508657</v>
+        <v>-1.00556103475826</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -755,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>119.877133448577</v>
+        <v>114.286020203662</v>
       </c>
       <c r="V2" t="n">
-        <v>118.92158069216</v>
+        <v>112.050688995084</v>
       </c>
       <c r="W2" t="n">
-        <v>51.6584720469673</v>
+        <v>51.6637842561602</v>
       </c>
       <c r="X2" t="n">
         <v>100</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.1594152352369</v>
+        <v>76.0319918874954</v>
       </c>
       <c r="Z2" t="n">
         <v>100</v>
@@ -803,40 +809,40 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>84.7969839369398</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>78.249427674313</v>
+        <v>84.6347475605377</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.780736180531579</v>
+        <v>78.2378093156861</v>
       </c>
       <c r="AN2" t="n">
+        <v>0.775496779174596</v>
+      </c>
+      <c r="AO2" t="n">
         <v>-100</v>
       </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2150.9346683916</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>1830.5047393896</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
         <v>100</v>
       </c>
-      <c r="AU2" t="n">
-        <v>0.790794760052541</v>
-      </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>0.788905490544014</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -845,42 +851,45 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>129.273119190095</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81.4205159114816</v>
+        <v>129.341580128077</v>
       </c>
       <c r="BA2" t="n">
-        <v>12.1899747994087</v>
+        <v>0.772572530648861</v>
       </c>
       <c r="BB2" t="n">
-        <v>66.8508391595614</v>
+        <v>12.3227952077669</v>
       </c>
       <c r="BC2" t="n">
-        <v>57.747890509313</v>
+        <v>66.914046891195</v>
       </c>
       <c r="BD2" t="n">
-        <v>8.50696157959982</v>
+        <v>57.7740168943814</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8.54393343750442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.5912507849134</v>
+        <v>-53.7621389652417</v>
       </c>
       <c r="D3" t="n">
-        <v>-97.0154631658537</v>
+        <v>-92.4123053748051</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.7982688474774</v>
+        <v>-17.8205863305561</v>
       </c>
       <c r="F3" t="n">
-        <v>-481.007002235318</v>
+        <v>-477.7581210826</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -892,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-10.1748626327356</v>
+        <v>-10.1991797275397</v>
       </c>
       <c r="K3" t="n">
-        <v>-17.2615908417889</v>
+        <v>-14.4448990510469</v>
       </c>
       <c r="L3" t="n">
         <v>-100</v>
@@ -904,10 +913,10 @@
         <v>-100</v>
       </c>
       <c r="N3" t="n">
-        <v>-143.212673573112</v>
+        <v>-137.937613066586</v>
       </c>
       <c r="O3" t="n">
-        <v>-33.3961551322635</v>
+        <v>-33.7112943585674</v>
       </c>
       <c r="P3" t="n">
         <v>-5</v>
@@ -919,19 +928,19 @@
         <v>-100</v>
       </c>
       <c r="S3" t="n">
-        <v>40.8766913692104</v>
+        <v>42.3917022721389</v>
       </c>
       <c r="T3" t="n">
         <v>-100</v>
       </c>
       <c r="U3" t="n">
-        <v>77.6228665514233</v>
+        <v>83.4376797963379</v>
       </c>
       <c r="V3" t="n">
-        <v>64.9784193078396</v>
+        <v>55.7506110049155</v>
       </c>
       <c r="W3" t="n">
-        <v>47.6733279530327</v>
+        <v>47.6680157438398</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -943,22 +952,22 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-4.09777216368954</v>
+        <v>-4.08325603352729</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.3810554290748</v>
+        <v>62.4514264712677</v>
       </c>
       <c r="AC3" t="n">
-        <v>-17.8419178618006</v>
+        <v>-17.7587175297043</v>
       </c>
       <c r="AD3" t="n">
-        <v>-306.84800343138</v>
+        <v>-306.938002232812</v>
       </c>
       <c r="AE3" t="n">
-        <v>-196.966609743673</v>
+        <v>-196.759751639878</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.68233469380408</v>
+        <v>-168.230129111615</v>
       </c>
       <c r="AG3" t="n">
         <v>-100</v>
@@ -967,69 +976,72 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>63.5488231471459</v>
+        <v>63.2737096920308</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>21.5030160630602</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>6.950572325687</v>
+        <v>21.6652524394623</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>6.9621906843139</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-49.5703051085785</v>
+        <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>-24.2349418767532</v>
+        <v>-49.5961476985188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-72536.9517683916</v>
+        <v>-24.3002340586761</v>
       </c>
       <c r="AR3" t="n">
+        <v>-72216.5218393896</v>
+      </c>
+      <c r="AS3" t="n">
         <v>-100</v>
       </c>
-      <c r="AS3" t="n">
-        <v>-26.2370622763678</v>
-      </c>
       <c r="AT3" t="n">
-        <v>48.4992989817909</v>
+        <v>-27.7789843529837</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0878052399474593</v>
+        <v>48.503370840325</v>
       </c>
       <c r="AV3" t="n">
-        <v>-66.2958615559492</v>
+        <v>0.0896945094559863</v>
       </c>
       <c r="AW3" t="n">
-        <v>-36.3994645767069</v>
+        <v>-72.8822927681898</v>
       </c>
       <c r="AX3" t="n">
-        <v>-55.173325146011</v>
+        <v>-36.4231622132434</v>
       </c>
       <c r="AY3" t="n">
-        <v>14.2245808099053</v>
+        <v>-55.6824501811408</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>14.1561198719229</v>
       </c>
       <c r="BA3" t="n">
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>41.9975608404386</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>44.369909490687</v>
+        <v>41.083253108805</v>
       </c>
       <c r="BD3" t="n">
+        <v>44.0628831056186</v>
+      </c>
+      <c r="BE3" t="n">
         <v>0</v>
       </c>
     </row>
